--- a/tailieu/8.2.ProjectTestCaseSprint2.xlsx
+++ b/tailieu/8.2.ProjectTestCaseSprint2.xlsx
@@ -13,6 +13,8 @@
     <sheet name="Thêm hoặc Xóa" sheetId="17" r:id="rId4"/>
     <sheet name="cập nhật tiện ích" sheetId="4" r:id="rId5"/>
     <sheet name="Thêm hoặc Xóa tiện ích" sheetId="14" r:id="rId6"/>
+    <sheet name=" Thêm và xóa" sheetId="18" r:id="rId7"/>
+    <sheet name="Cập nhật TTCSVC" sheetId="19" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="319">
   <si>
     <t>TEST CASE SYSTEM SPRINT 2</t>
   </si>
@@ -64,7 +66,7 @@
     <t xml:space="preserve">Tra cứu thông tin </t>
   </si>
   <si>
-    <t>Tuyết, Trình</t>
+    <t>An, Trình</t>
   </si>
   <si>
     <t>Quản lý trạng thái phòng</t>
@@ -73,7 +75,7 @@
     <t>Cập nhật</t>
   </si>
   <si>
-    <t>Xem phòng</t>
+    <t>Tuyết</t>
   </si>
   <si>
     <t>Thêm hoặc xóa</t>
@@ -88,16 +90,11 @@
     <t>Quản lý tình trạng cơ sở vật chất</t>
   </si>
   <si>
-    <t>Thêm mới</t>
-  </si>
-  <si>
-    <t>Trình ,An</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xóa </t>
-  </si>
-  <si>
-    <t>Xem báo cáo</t>
+    <t xml:space="preserve">Thêm và Xóa 
+</t>
+  </si>
+  <si>
+    <t>Sáng, Tuyết</t>
   </si>
   <si>
     <t>Project Name</t>
@@ -186,9 +183,6 @@
   </si>
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>Tuyết</t>
   </si>
   <si>
     <t>GUI - TK02</t>
@@ -641,25 +635,22 @@
     <t>GUI-THX09</t>
   </si>
   <si>
+    <t>[Lưu] Button</t>
+  </si>
+  <si>
     <t>GUI-THX10</t>
   </si>
   <si>
-    <t>[Lưu] Button</t>
+    <t>[Xóa nhà trọ] Textbox</t>
   </si>
   <si>
     <t>GUI-THX11</t>
   </si>
   <si>
-    <t>[Xóa nhà trọ] Textbox</t>
+    <t>[Bạn có chắc muốn xóa nhà trọ này không?] Label</t>
   </si>
   <si>
     <t>GUI-THX12</t>
-  </si>
-  <si>
-    <t>[Bạn có chắc muốn xóa nhà trọ này không?] Label</t>
-  </si>
-  <si>
-    <t>GUI-THX13</t>
   </si>
   <si>
     <t>[Confirm] Button</t>
@@ -669,7 +660,7 @@
  -Status : enable</t>
   </si>
   <si>
-    <t>GUI-THX14</t>
+    <t>GUI-THX13</t>
   </si>
   <si>
     <t>[Cancel] Button</t>
@@ -1046,6 +1037,224 @@
 5. Nhấn vào ô muốn chỉnh sửa bất kỳ
 6. Nhấn vào button Confirm</t>
   </si>
+  <si>
+    <t>GUI_SHOW Thêm cơ sở vật chất</t>
+  </si>
+  <si>
+    <t>GUI - TCSVC01</t>
+  </si>
+  <si>
+    <t>[Tạo cơ sở vật chất] Label</t>
+  </si>
+  <si>
+    <t>Sáng</t>
+  </si>
+  <si>
+    <t>GUI - TCSVC02</t>
+  </si>
+  <si>
+    <t>[Chọn phòng trọ] Combobox</t>
+  </si>
+  <si>
+    <t>GUI - TCSVC03</t>
+  </si>
+  <si>
+    <t>[Tên vật liệu] Textbox</t>
+  </si>
+  <si>
+    <t>GUI - TCSVC04</t>
+  </si>
+  <si>
+    <t>[Số lượng] Textbox</t>
+  </si>
+  <si>
+    <t>GUI - TCSVC05</t>
+  </si>
+  <si>
+    <t>GUI - TCSVC06</t>
+  </si>
+  <si>
+    <t>GUI - TCSVC07</t>
+  </si>
+  <si>
+    <t>[Xóa cơ sở vật chất] Textbox</t>
+  </si>
+  <si>
+    <t>GUI - TCSVC08</t>
+  </si>
+  <si>
+    <t>GUI - TCSVC09</t>
+  </si>
+  <si>
+    <t>GUI - TCSVC10</t>
+  </si>
+  <si>
+    <t>FUNCTION_SHOW Thêm cơ sở vật chất</t>
+  </si>
+  <si>
+    <t>FUNC-TCSVC01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị trang chủ gồm có: 
+- Combobox "Chọn phòng trọ"
+- Textbox "Tên vật liệu"
+-Textbox "Số lượng "
+- Button "Hủy"
+- Button "Cập nhật"
+- Textbox "Xóa cơ sở vật chất "
+- Textbox "Bạn có chắc chắn muốn xóa nhà trọ này không "
+- Button "Confirm"
+- Button "Cancel"
+</t>
+  </si>
+  <si>
+    <t>FUNC-TCSVC02</t>
+  </si>
+  <si>
+    <t>1. Khởi động trang web.
+2. Hiển thị trang chủ.
+3. Nhấn vào "Trọ của tôi"
+4. Nhấn vào "Quản lý cơ sở vật chất" và chọn "Thêm cơ sở vật chất"
+5. Nhấn vào button Lưu</t>
+  </si>
+  <si>
+    <t>FUNC-TCSVC03</t>
+  </si>
+  <si>
+    <t>1. Khởi động trang web.
+2. Hiển thị trang chủ.
+3. Nhấn vào "Trọ của tôi"
+4. Nhấn vào "Quản lý cơ sở vật chất" và chọn "Thêm mới"
+5. Nhấn vào ô muốn Thêm bất kỳ
+6. Nhấn vào button Lưu</t>
+  </si>
+  <si>
+    <t>FUNC-TCSVC04</t>
+  </si>
+  <si>
+    <t>Nhập chữ vào ô Số lượng</t>
+  </si>
+  <si>
+    <t>1. Khởi động trang web.
+2. Hiển thị trang chủ.
+3. Nhấn vào "Trọ của tôi"
+4. Nhấn vào "Quản lý  cơ sở vật chất" và chọn "Thêm mới"
+5. Nhập chữ cái vào ô Số lượng
+6. Nhấn vào button lưu</t>
+  </si>
+  <si>
+    <t>FUNC-TCSVC05</t>
+  </si>
+  <si>
+    <t>1. Khởi động trang web.
+2. Hiển thị trang chủ.
+3. Nhấn vào "Trọ của tôi"
+4. Nhấn vào "Quản lý  cơ sở vật chất" và chọn "Thêm mới "
+5. Nhấn vào ô muốn thêm bất kỳ
+6. Nhấn vào button hủy</t>
+  </si>
+  <si>
+    <t>FUNC-TCSVC06</t>
+  </si>
+  <si>
+    <t>GUI_SHOW Cập nhật cơ sở vật chất</t>
+  </si>
+  <si>
+    <t>GUI - CPCSVC01</t>
+  </si>
+  <si>
+    <t>[Cập nhật cơ sở vật chất] Label</t>
+  </si>
+  <si>
+    <t>GUI - CPCSVC02</t>
+  </si>
+  <si>
+    <t>GUI - CPCSVC03</t>
+  </si>
+  <si>
+    <t>GUI - CPCSVC04</t>
+  </si>
+  <si>
+    <t>GUI - CPCSVC05</t>
+  </si>
+  <si>
+    <t>[Tốt/Cần sửa chữa/Hỏng] RadioButton</t>
+  </si>
+  <si>
+    <t>GUI - CPCSVC06</t>
+  </si>
+  <si>
+    <t>GUI - CPCSVC07</t>
+  </si>
+  <si>
+    <t>FUNCTION_SHOW Cập nhật cơ sở vật chất</t>
+  </si>
+  <si>
+    <t>FUNC-CPCSVC01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị trang chủ gồm có: 
+- Combobox "Chọn phòng trọ"
+- Textbox "Tên vật liệu"
+-Textbox "Số lượng "
+- RadioButton "Tốt/Cần sửa chữa/Hỏng"
+- Button "Hủy"
+- Button "Cập nhật"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị trang chủ gồm có: 
+- Combobox "Chọn phòng trọ"
+- Textbox "Tên vật liệu"
+-Textbox "Số lượng "
+- RadioButton "Tốt/Cần sửa chữa/Hỏng"
+- Button "Hủy"
+- Button "Cập nhật"
+</t>
+  </si>
+  <si>
+    <t>FUNC-CPCSVC02</t>
+  </si>
+  <si>
+    <t>1. Khởi động trang web.
+2. Hiển thị trang chủ.
+3. Nhấn vào "Trọ của tôi"
+4. Nhấn vào "Quản lý cơ sở vật chất" và chọn "Cập nhật cơ sở vật chất"
+5. Nhấn vào button Lưu</t>
+  </si>
+  <si>
+    <t>FUNC-CPCSVC03</t>
+  </si>
+  <si>
+    <t>1. Khởi động trang web.
+2. Hiển thị trang chủ.
+3. Nhấn vào "Trọ của tôi"
+4. Nhấn vào "Quản lý Số lượng" và chọn "Câp nhật"
+5. Nhấn vào ô muốn chỉnh sửa bất kỳ
+6. Nhấn vào button cập nhật</t>
+  </si>
+  <si>
+    <t>FUNC-CPCSVC04</t>
+  </si>
+  <si>
+    <t>1. Khởi động trang web.
+2. Hiển thị trang chủ.
+3. Nhấn vào "Trọ của tôi"
+4. Nhấn vào "Quản lý  cơ sở vật chất" và chọn "Câp nhật"
+5. Nhập chữ cái vào ô Số lượng
+6. Nhấn vào button cập nhật</t>
+  </si>
+  <si>
+    <t>FUNC-CPCSVC05</t>
+  </si>
+  <si>
+    <t>1. Khởi động trang web.
+2. Hiển thị trang chủ.
+3. Nhấn vào "Trọ của tôi"
+4. Nhấn vào "Quản lý  cơ sở vật chất" và chọn "Cập nhật "
+5. Nhấn vào ô muốn thêm bất kỳ
+6. Nhấn vào button hủy</t>
+  </si>
 </sst>
 </file>
 
@@ -1058,7 +1267,7 @@
     <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1220,11 +1429,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1859,151 +2072,151 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2081,47 +2294,59 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2153,9 +2378,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2189,9 +2411,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2200,9 +2419,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2282,44 +2498,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2981,6 +3185,168 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>364490</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1298575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Mở ảnh"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3412490" y="1320165"/>
+          <a:ext cx="6438900" cy="4419600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>81641</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>37774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="D:\804c4a707f45ca1b9354.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11271250" y="1487170"/>
+          <a:ext cx="9531985" cy="3234690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>707573</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="D:\0532a1811daba8f5f1ba.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1290320" y="1449705"/>
+          <a:ext cx="5008880" cy="3917315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3268,10 +3634,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3284,215 +3650,194 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" ht="11.25" customHeight="1" spans="1:5">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" ht="42.75" customHeight="1" spans="1:5">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="90"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="91"/>
     </row>
     <row r="4" ht="20.4" spans="1:5">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="95" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="16.8" spans="1:5">
-      <c r="A5" s="96">
+      <c r="A5" s="97">
         <v>1</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="32">
         <v>19</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="100" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="16.8" spans="1:5">
-      <c r="A6" s="100">
+      <c r="A6" s="101">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="32">
         <v>17</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="16.8" spans="1:5">
+      <c r="A7" s="101"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="32">
+        <v>21</v>
+      </c>
+      <c r="E7" s="100"/>
+    </row>
+    <row r="8" ht="16.8" spans="1:5">
+      <c r="A8" s="102">
+        <v>3</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="105">
+        <v>14</v>
+      </c>
+      <c r="E8" s="100" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="1:5">
-      <c r="A7" s="100"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="102"/>
-    </row>
-    <row r="8" ht="16.8" spans="1:5">
-      <c r="A8" s="100"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="30">
-        <v>21</v>
-      </c>
-      <c r="E8" s="103"/>
-    </row>
     <row r="9" ht="16.8" spans="1:5">
-      <c r="A9" s="104"/>
-      <c r="B9" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="106" t="s">
+      <c r="A9" s="102"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="105">
+        <v>20</v>
+      </c>
+      <c r="E9" s="100"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:5">
+      <c r="A10" s="20">
+        <v>4</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="105">
+        <v>16</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="16.8" spans="1:5">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="30">
-        <v>14</v>
-      </c>
-      <c r="E9" s="104"/>
-    </row>
-    <row r="10" ht="16.8" spans="1:5">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="106" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="30">
-        <v>20</v>
-      </c>
-      <c r="E10" s="104"/>
-    </row>
-    <row r="11" ht="16.8" spans="1:5">
-      <c r="A11" s="20">
-        <v>4</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="107" t="s">
-        <v>19</v>
-      </c>
+      <c r="D11" s="107">
+        <v>12</v>
+      </c>
+      <c r="E11" s="100"/>
     </row>
     <row r="12" ht="16.8" spans="1:5">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109"/>
-    </row>
-    <row r="13" customFormat="1" ht="16.8" spans="1:5">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
-    </row>
-    <row r="14" ht="16.8" spans="1:5">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="110"/>
-    </row>
-    <row r="15" ht="16.8" spans="1:5">
-      <c r="A15" s="111"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111">
-        <f>SUM(D5:D14)</f>
-        <v>91</v>
-      </c>
-      <c r="E15" s="111"/>
-    </row>
-    <row r="18" ht="16.8" spans="2:5">
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
-    </row>
-    <row r="19" ht="16.8" spans="2:5">
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="113"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108">
+        <f>SUM(D5:D11)</f>
+        <v>119</v>
+      </c>
+      <c r="E12" s="108"/>
+    </row>
+    <row r="15" ht="16.8" spans="2:5">
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+    </row>
+    <row r="16" ht="16.8" spans="2:5">
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="A1:D2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" location="'Xem danh sách văn bản đến'!A1" display="Tra cứu thông tin "/>
     <hyperlink ref="C6" location="'Cập Nhật'!A1" display="Cập nhật"/>
-    <hyperlink ref="C7" location="'Xem Phòng'!A1" display="Xem phòng"/>
-    <hyperlink ref="C8" location="'Thêm hoặc Xóa'!A1" display="Thêm hoặc xóa"/>
-    <hyperlink ref="C9" location="'cập nhật tiện ích'!A1" display="Cập nhật"/>
-    <hyperlink ref="C10" location="'Thêm hoặc Xóa tiện ích'!A1" display="Thêm xóa tiện ích"/>
-    <hyperlink ref="C11" location="'Danh sách phòng'!A1" display="Thêm mới"/>
-    <hyperlink ref="C12" location="'Thêm Phòng'!A1" display="Cập nhật"/>
-    <hyperlink ref="C14" location="'Cập nhật Phòng '!A1" display="Xem báo cáo"/>
+    <hyperlink ref="C7" location="'Thêm hoặc Xóa'!A1" display="Thêm hoặc xóa"/>
+    <hyperlink ref="C8" location="'cập nhật tiện ích'!A1" display="Cập nhật"/>
+    <hyperlink ref="C9" location="'Thêm hoặc Xóa tiện ích'!A1" display="Thêm xóa tiện ích"/>
+    <hyperlink ref="C10" location="' Thêm và xóa'!A1" display="Thêm và Xóa &#10;"/>
+    <hyperlink ref="C11" location="'Cập nhật TTCSVC'!A1" display="Cập nhật"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3508,7 +3853,7 @@
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09259259259259" defaultRowHeight="14.4"/>
@@ -3530,49 +3875,49 @@
   <sheetData>
     <row r="1" ht="23.25" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" ht="22.8" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" ht="18" spans="1:6">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5">
         <v>19</v>
@@ -3593,7 +3938,7 @@
     </row>
     <row r="5" ht="18" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5">
         <v>19</v>
@@ -3614,33 +3959,33 @@
     </row>
     <row r="31" ht="17.4" spans="1:13">
       <c r="A31" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="G31" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="G31" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="32" ht="17.4" spans="1:13">
@@ -3650,17 +3995,17 @@
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="85"/>
+      <c r="G32" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="86"/>
     </row>
     <row r="33" ht="16.8" spans="1:13">
       <c r="A33" s="10"/>
@@ -3670,788 +4015,788 @@
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="J33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="86"/>
+    </row>
+    <row r="34" ht="16.8" spans="1:13">
+      <c r="A34" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M33" s="85"/>
-    </row>
-    <row r="34" ht="16.8" spans="1:13">
-      <c r="A34" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
     </row>
     <row r="35" ht="33.6" spans="1:13">
       <c r="A35" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="18" t="s">
+      <c r="D35" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="F35" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H35" s="24">
         <v>45765</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K35" s="24">
         <v>45769</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="33.6" spans="1:13">
       <c r="A36" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C36" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="F36" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H36" s="24">
         <v>45765</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K36" s="24">
         <v>45769</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="33.6" spans="1:13">
       <c r="A37" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H37" s="24">
         <v>45765</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K37" s="24">
         <v>45769</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M37" s="86"/>
+        <v>51</v>
+      </c>
+      <c r="M37" s="87"/>
     </row>
     <row r="38" ht="33.6" spans="1:13">
       <c r="A38" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="31" t="s">
-        <v>60</v>
-      </c>
       <c r="G38" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H38" s="24">
         <v>45765</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K38" s="24">
         <v>45769</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M38" s="87"/>
+        <v>13</v>
+      </c>
+      <c r="M38" s="88"/>
     </row>
     <row r="39" ht="33.6" spans="1:13">
       <c r="A39" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="C39" s="81"/>
+      <c r="D39" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H39" s="24">
         <v>45765</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K39" s="24">
         <v>45769</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M39" s="87"/>
+        <v>13</v>
+      </c>
+      <c r="M39" s="88"/>
     </row>
     <row r="40" ht="33.6" spans="1:13">
       <c r="A40" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="30" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="B40" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="81"/>
+      <c r="D40" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H40" s="24">
         <v>45765</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K40" s="24">
         <v>45769</v>
       </c>
       <c r="L40" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M40" s="87"/>
+        <v>51</v>
+      </c>
+      <c r="M40" s="88"/>
     </row>
     <row r="41" ht="33.6" spans="1:13">
       <c r="A41" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="30" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="B41" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="81"/>
+      <c r="D41" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H41" s="24">
         <v>45765</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K41" s="24">
         <v>45769</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M41" s="87"/>
+        <v>13</v>
+      </c>
+      <c r="M41" s="88"/>
     </row>
     <row r="42" ht="33.6" spans="1:13">
       <c r="A42" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="30" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="B42" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="81"/>
+      <c r="D42" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H42" s="24">
         <v>45765</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K42" s="24">
         <v>45769</v>
       </c>
       <c r="L42" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M42" s="87"/>
+        <v>51</v>
+      </c>
+      <c r="M42" s="88"/>
     </row>
     <row r="43" ht="33.6" spans="1:13">
       <c r="A43" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="30" t="s">
-        <v>48</v>
+        <v>67</v>
+      </c>
+      <c r="B43" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="81"/>
+      <c r="D43" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H43" s="24">
         <v>45765</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K43" s="24">
         <v>45769</v>
       </c>
       <c r="L43" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M43" s="87"/>
+        <v>13</v>
+      </c>
+      <c r="M43" s="88"/>
     </row>
     <row r="44" ht="33.6" spans="1:13">
       <c r="A44" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="80"/>
-      <c r="D44" s="30" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="B44" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="81"/>
+      <c r="D44" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H44" s="24">
         <v>45765</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K44" s="24">
         <v>45769</v>
       </c>
       <c r="L44" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M44" s="87"/>
+        <v>51</v>
+      </c>
+      <c r="M44" s="88"/>
     </row>
     <row r="45" ht="16.8" spans="1:14">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="71"/>
+    </row>
+    <row r="46" ht="100.8" spans="1:13">
+      <c r="A46" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="70"/>
-    </row>
-    <row r="46" ht="100.8" spans="1:13">
-      <c r="A46" s="31" t="s">
+      <c r="D46" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>79</v>
+      <c r="F46" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H46" s="24">
         <v>45765</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K46" s="24">
         <v>45770</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M46" s="86"/>
+        <v>13</v>
+      </c>
+      <c r="M46" s="87"/>
     </row>
     <row r="47" ht="50.4" spans="1:13">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>83</v>
+      <c r="F47" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H47" s="24">
         <v>45765</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K47" s="24">
         <v>45770</v>
       </c>
       <c r="L47" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M47" s="86"/>
+        <v>51</v>
+      </c>
+      <c r="M47" s="87"/>
     </row>
     <row r="48" ht="84" spans="1:13">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>87</v>
+      <c r="F48" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H48" s="24">
         <v>45765</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K48" s="24">
         <v>45770</v>
       </c>
       <c r="L48" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M48" s="86"/>
-    </row>
-    <row r="49" customFormat="1" ht="90" customHeight="1" spans="1:13">
-      <c r="A49" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M48" s="87"/>
+    </row>
+    <row r="49" ht="90" customHeight="1" spans="1:13">
+      <c r="A49" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>91</v>
+      <c r="F49" s="33" t="s">
+        <v>88</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H49" s="24">
         <v>45766</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K49" s="24">
         <v>45770</v>
       </c>
       <c r="L49" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M49" s="86"/>
-    </row>
-    <row r="50" s="71" customFormat="1" ht="84" spans="1:13">
-      <c r="A50" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" s="87"/>
+    </row>
+    <row r="50" s="72" customFormat="1" ht="84" spans="1:13">
+      <c r="A50" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="G50" s="84" t="s">
-        <v>50</v>
+      <c r="F50" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="85" t="s">
+        <v>48</v>
       </c>
       <c r="H50" s="24">
         <v>45766</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J50" s="84" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="J50" s="85" t="s">
+        <v>48</v>
       </c>
       <c r="K50" s="24">
         <v>45770</v>
       </c>
       <c r="L50" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M50" s="88"/>
-    </row>
-    <row r="51" s="71" customFormat="1" ht="67.2" spans="1:13">
-      <c r="A51" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="M50" s="89"/>
+    </row>
+    <row r="51" s="72" customFormat="1" ht="67.2" spans="1:13">
+      <c r="A51" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="84" t="s">
-        <v>50</v>
+      <c r="F51" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="85" t="s">
+        <v>48</v>
       </c>
       <c r="H51" s="24">
         <v>45766</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J51" s="84" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="J51" s="85" t="s">
+        <v>48</v>
       </c>
       <c r="K51" s="24">
         <v>45770</v>
       </c>
       <c r="L51" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M51" s="88"/>
+        <v>51</v>
+      </c>
+      <c r="M51" s="89"/>
     </row>
     <row r="52" ht="100.8" spans="1:13">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="F52" s="82" t="s">
-        <v>103</v>
+      <c r="F52" s="83" t="s">
+        <v>100</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H52" s="24">
         <v>45766</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K52" s="24">
         <v>45770</v>
       </c>
       <c r="L52" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M52" s="86"/>
+        <v>13</v>
+      </c>
+      <c r="M52" s="87"/>
     </row>
     <row r="53" ht="117.6" spans="1:13">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="F53" s="82" t="s">
-        <v>107</v>
+      <c r="F53" s="83" t="s">
+        <v>104</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H53" s="24">
         <v>45766</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K53" s="24">
         <v>45770</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M53" s="86"/>
+        <v>51</v>
+      </c>
+      <c r="M53" s="87"/>
     </row>
     <row r="54" ht="84" spans="1:13">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" s="82" t="s">
-        <v>111</v>
+      <c r="F54" s="83" t="s">
+        <v>108</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H54" s="24">
         <v>45766</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K54" s="24">
         <v>45770</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M54" s="86"/>
+        <v>13</v>
+      </c>
+      <c r="M54" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4490,7 +4835,7 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K31" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09259259259259" defaultRowHeight="14.4"/>
@@ -4512,7 +4857,7 @@
   <sheetData>
     <row r="1" ht="23.25" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -4524,7 +4869,7 @@
     </row>
     <row r="2" ht="22.8" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -4537,24 +4882,24 @@
     <row r="3" ht="18" spans="1:6">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5">
         <v>17</v>
@@ -4575,7 +4920,7 @@
     </row>
     <row r="5" ht="18" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9">
         <v>17</v>
@@ -4594,781 +4939,758 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
-    <row r="21" customFormat="1"/>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1"/>
-    <row r="24" customFormat="1"/>
-    <row r="25" customFormat="1"/>
-    <row r="26" customFormat="1"/>
-    <row r="27" customFormat="1"/>
-    <row r="28" customFormat="1"/>
-    <row r="29" customFormat="1"/>
-    <row r="30" customFormat="1"/>
-    <row r="32" customFormat="1"/>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
-    <row r="35" customFormat="1"/>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
-    <row r="39" customFormat="1"/>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
-    <row r="42" customFormat="1"/>
     <row r="50" ht="17.4" spans="1:13">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="45" t="s">
+      <c r="E50" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="45" t="s">
+      <c r="F50" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="46" t="s">
+      <c r="G50" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="45" t="s">
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="47" t="s">
+    </row>
+    <row r="51" ht="17.4" spans="1:13">
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="67" t="s">
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" ht="17.4" spans="1:13">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="47" t="s">
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="70"/>
+    </row>
+    <row r="52" ht="15.6" spans="1:13">
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47" t="s">
+      <c r="H52" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="68"/>
-    </row>
-    <row r="52" ht="15.6" spans="1:13">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45" t="s">
+      <c r="I52" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="H52" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I52" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="J52" s="45" t="s">
+      <c r="J52" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="K52" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="L52" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="M52" s="68"/>
+      <c r="M52" s="70"/>
     </row>
     <row r="53" ht="15.6" spans="1:13">
-      <c r="A53" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
+      <c r="A53" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="65"/>
     </row>
     <row r="54" ht="33.6" spans="1:13">
       <c r="A54" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" s="63" t="s">
-        <v>50</v>
+        <v>111</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="66" t="s">
+        <v>48</v>
       </c>
       <c r="H54" s="21">
         <v>45766</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K54" s="24">
         <v>45769</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M54" s="53"/>
-    </row>
-    <row r="55" customFormat="1" ht="33.6" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="M54" s="46"/>
+    </row>
+    <row r="55" ht="33.6" spans="1:13">
       <c r="A55" s="26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="41"/>
-      <c r="D55" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F55" s="64" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="67" t="s">
+        <v>115</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H55" s="24">
         <v>45766</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K55" s="24">
         <v>45769</v>
       </c>
       <c r="L55" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M55" s="53"/>
+        <v>51</v>
+      </c>
+      <c r="M55" s="46"/>
     </row>
     <row r="56" ht="33.6" spans="1:13">
       <c r="A56" s="26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="C56" s="38"/>
+      <c r="D56" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H56" s="24">
         <v>45766</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J56" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K56" s="24">
         <v>45769</v>
       </c>
       <c r="L56" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M56" s="53"/>
+        <v>51</v>
+      </c>
+      <c r="M56" s="46"/>
     </row>
     <row r="57" ht="33.6" spans="1:13">
       <c r="A57" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H57" s="24">
         <v>45766</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K57" s="24">
         <v>45769</v>
       </c>
       <c r="L57" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M57" s="53"/>
+        <v>13</v>
+      </c>
+      <c r="M57" s="46"/>
     </row>
     <row r="58" ht="33.6" spans="1:13">
       <c r="A58" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F58" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H58" s="24">
         <v>45766</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K58" s="24">
         <v>45769</v>
       </c>
       <c r="L58" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M58" s="53"/>
+        <v>13</v>
+      </c>
+      <c r="M58" s="46"/>
     </row>
     <row r="59" ht="33.6" spans="1:13">
       <c r="A59" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C59" s="26"/>
-      <c r="D59" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>123</v>
+      <c r="D59" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H59" s="24">
         <v>45766</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K59" s="24">
         <v>45769</v>
       </c>
       <c r="L59" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M59" s="53"/>
+        <v>51</v>
+      </c>
+      <c r="M59" s="46"/>
     </row>
     <row r="60" ht="33.6" spans="1:13">
       <c r="A60" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C60" s="26"/>
-      <c r="D60" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>118</v>
+      <c r="D60" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H60" s="24">
         <v>45766</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K60" s="24">
         <v>45769</v>
       </c>
       <c r="L60" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M60" s="53"/>
-    </row>
-    <row r="61" customFormat="1" ht="33.6" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="M60" s="46"/>
+    </row>
+    <row r="61" ht="33.6" spans="1:13">
       <c r="A61" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+      <c r="C61" s="40"/>
+      <c r="D61" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H61" s="24">
         <v>45766</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K61" s="24">
         <v>45769</v>
       </c>
       <c r="L61" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M61" s="69"/>
-    </row>
-    <row r="62" customFormat="1" ht="26" customHeight="1" spans="1:13">
+        <v>51</v>
+      </c>
+      <c r="M61" s="44"/>
+    </row>
+    <row r="62" ht="26" customHeight="1" spans="1:13">
       <c r="A62" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" s="31" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="C62" s="40"/>
+      <c r="D62" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H62" s="24">
         <v>45766</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K62" s="24">
         <v>45769</v>
       </c>
       <c r="L62" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M62" s="69"/>
-    </row>
-    <row r="63" customFormat="1" ht="33.6" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="M62" s="44"/>
+    </row>
+    <row r="63" ht="33.6" spans="1:13">
       <c r="A63" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="C63" s="40"/>
+      <c r="D63" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H63" s="24">
         <v>45766</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K63" s="24">
         <v>45769</v>
       </c>
       <c r="L63" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M63" s="69"/>
+        <v>51</v>
+      </c>
+      <c r="M63" s="44"/>
     </row>
     <row r="64" ht="33.6" spans="1:13">
       <c r="A64" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="G64" s="65" t="s">
-        <v>50</v>
+        <v>137</v>
+      </c>
+      <c r="C64" s="40"/>
+      <c r="D64" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="H64" s="24">
         <v>45766</v>
       </c>
       <c r="I64" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J64" s="65" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="J64" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="K64" s="24">
         <v>45769</v>
       </c>
       <c r="L64" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M64" s="69"/>
+        <v>13</v>
+      </c>
+      <c r="M64" s="44"/>
     </row>
     <row r="65" ht="16.8" spans="1:14">
-      <c r="A65" s="66" t="s">
+      <c r="A65" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="71"/>
+    </row>
+    <row r="66" ht="252" spans="1:13">
+      <c r="A66" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="70"/>
-    </row>
-    <row r="66" ht="252" spans="1:13">
-      <c r="A66" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="F66" s="35" t="s">
-        <v>145</v>
+      <c r="F66" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H66" s="24">
         <v>45767</v>
       </c>
       <c r="I66" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K66" s="24">
         <v>45769</v>
       </c>
       <c r="L66" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M66" s="53"/>
+        <v>13</v>
+      </c>
+      <c r="M66" s="46"/>
     </row>
     <row r="67" ht="100.8" spans="1:13">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F67" s="35" t="s">
-        <v>149</v>
+      <c r="F67" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H67" s="24">
         <v>45767</v>
       </c>
       <c r="I67" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K67" s="24">
         <v>45769</v>
       </c>
       <c r="L67" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M67" s="53"/>
+        <v>51</v>
+      </c>
+      <c r="M67" s="46"/>
     </row>
     <row r="68" ht="134.4" spans="1:13">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B68" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F68" s="35" t="s">
-        <v>153</v>
+      <c r="F68" s="33" t="s">
+        <v>150</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H68" s="24">
         <v>45767</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J68" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K68" s="24">
         <v>45769</v>
       </c>
       <c r="L68" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M68" s="53"/>
+        <v>51</v>
+      </c>
+      <c r="M68" s="46"/>
     </row>
     <row r="69" ht="134.4" spans="1:13">
-      <c r="A69" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F69" s="35" t="s">
-        <v>95</v>
+      <c r="A69" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H69" s="24">
         <v>45767</v>
       </c>
       <c r="I69" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K69" s="24">
         <v>45769</v>
       </c>
       <c r="L69" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M69" s="53"/>
+        <v>13</v>
+      </c>
+      <c r="M69" s="46"/>
     </row>
     <row r="70" ht="134.4" spans="1:13">
-      <c r="A70" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E70" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F70" s="35" t="s">
-        <v>95</v>
+      <c r="A70" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H70" s="24">
         <v>45767</v>
       </c>
       <c r="I70" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J70" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K70" s="24">
         <v>45769</v>
       </c>
       <c r="L70" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M70" s="53"/>
+        <v>13</v>
+      </c>
+      <c r="M70" s="46"/>
     </row>
     <row r="71" ht="134.4" spans="1:13">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B71" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E71" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F71" s="35" t="s">
-        <v>163</v>
+      <c r="F71" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H71" s="24">
         <v>45767</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J71" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K71" s="24">
         <v>45769</v>
       </c>
       <c r="L71" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M71" s="53"/>
+        <v>51</v>
+      </c>
+      <c r="M71" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5404,10 +5726,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5427,437 +5749,424 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:6">
-      <c r="A1" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" ht="16.8" spans="1:6">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+    </row>
+    <row r="3" ht="16.8" spans="1:6">
+      <c r="A3" s="38"/>
+      <c r="B3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="C3" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" spans="1:6">
+      <c r="A4" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="38">
+        <v>20</v>
+      </c>
+      <c r="C4" s="38">
+        <v>0</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0</v>
+      </c>
+      <c r="E4" s="38">
+        <v>0</v>
+      </c>
+      <c r="F4" s="38">
+        <f>B4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" spans="1:6">
+      <c r="A5" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="38">
+        <v>20</v>
+      </c>
+      <c r="C5" s="38">
+        <v>0</v>
+      </c>
+      <c r="D5" s="38">
+        <v>0</v>
+      </c>
+      <c r="E5" s="38">
+        <v>0</v>
+      </c>
+      <c r="F5" s="38">
+        <f>B5</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" ht="17.4" spans="1:13">
+      <c r="A39" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" ht="17.4" spans="1:13">
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="70"/>
+    </row>
+    <row r="41" ht="15.6" spans="1:13">
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="70"/>
+    </row>
+    <row r="42" ht="15.6" spans="1:13">
+      <c r="A42" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+    </row>
+    <row r="43" ht="33.6" spans="1:13">
+      <c r="A43" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-    </row>
-    <row r="3" ht="16.8" spans="1:6">
-      <c r="A3" s="41"/>
-      <c r="B3" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="16.8" spans="1:6">
-      <c r="A4" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="41">
-        <v>21</v>
-      </c>
-      <c r="C4" s="41">
-        <v>0</v>
-      </c>
-      <c r="D4" s="41">
-        <v>0</v>
-      </c>
-      <c r="E4" s="41">
-        <v>0</v>
-      </c>
-      <c r="F4" s="41">
-        <f>B4</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="16.8" spans="1:6">
-      <c r="A5" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="41">
-        <v>21</v>
-      </c>
-      <c r="C5" s="41">
-        <v>0</v>
-      </c>
-      <c r="D5" s="41">
-        <v>0</v>
-      </c>
-      <c r="E5" s="41">
-        <v>0</v>
-      </c>
-      <c r="F5" s="41">
-        <f>B5</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
-    <row r="21" customFormat="1"/>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1"/>
-    <row r="39" customFormat="1" ht="17.4" spans="1:13">
-      <c r="A39" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" ht="17.4" spans="1:13">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="68"/>
-    </row>
-    <row r="41" customFormat="1" ht="15.6" spans="1:13">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="J41" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K41" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="L41" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="M41" s="68"/>
-    </row>
-    <row r="42" customFormat="1" ht="15.6" spans="1:13">
-      <c r="A42" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-    </row>
-    <row r="43" customFormat="1" ht="33.6" spans="1:13">
-      <c r="A43" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G43" s="63" t="s">
-        <v>50</v>
+      <c r="C43" s="38"/>
+      <c r="D43" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="66" t="s">
+        <v>48</v>
       </c>
       <c r="H43" s="21">
         <v>45766</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K43" s="24">
         <v>45769</v>
       </c>
       <c r="L43" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M43" s="53"/>
-    </row>
-    <row r="44" customFormat="1" ht="33.6" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="M43" s="46"/>
+    </row>
+    <row r="44" ht="33.6" spans="1:13">
       <c r="A44" s="26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H44" s="24">
         <v>45766</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K44" s="24">
         <v>45769</v>
       </c>
       <c r="L44" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M44" s="53"/>
-    </row>
-    <row r="45" customFormat="1" ht="33.6" spans="1:13">
+        <v>51</v>
+      </c>
+      <c r="M44" s="46"/>
+    </row>
+    <row r="45" ht="33.6" spans="1:13">
       <c r="A45" s="26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H45" s="24">
         <v>45766</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K45" s="24">
         <v>45769</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M45" s="53"/>
-    </row>
-    <row r="46" customFormat="1" ht="33.6" spans="1:13">
+        <v>51</v>
+      </c>
+      <c r="M45" s="46"/>
+    </row>
+    <row r="46" ht="33.6" spans="1:13">
       <c r="A46" s="26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H46" s="24">
         <v>45766</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K46" s="24">
         <v>45769</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M46" s="53"/>
-    </row>
-    <row r="47" customFormat="1" ht="50.4" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="M46" s="46"/>
+    </row>
+    <row r="47" ht="50.4" spans="1:13">
       <c r="A47" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H47" s="24">
         <v>45766</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K47" s="24">
         <v>45769</v>
       </c>
       <c r="L47" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M47" s="53"/>
-    </row>
-    <row r="48" customFormat="1" ht="33.6" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="M47" s="46"/>
+    </row>
+    <row r="48" ht="33.6" spans="1:13">
       <c r="A48" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>127</v>
+        <v>169</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="C48" s="26"/>
-      <c r="D48" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>123</v>
+      <c r="D48" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H48" s="24">
         <v>45766</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K48" s="24">
         <v>45769</v>
       </c>
       <c r="L48" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M48" s="53"/>
-    </row>
-    <row r="49" customFormat="1" ht="33.6" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="M48" s="46"/>
+    </row>
+    <row r="49" ht="33.6" spans="1:13">
       <c r="A49" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B49" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>118</v>
+      <c r="F49" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H49" s="24">
         <v>45766</v>
@@ -5866,7 +6175,7 @@
         <v>51</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K49" s="24">
         <v>45769</v>
@@ -5874,64 +6183,64 @@
       <c r="L49" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="M49" s="53"/>
-    </row>
-    <row r="50" customFormat="1" ht="33.6" spans="1:13">
+      <c r="M49" s="44"/>
+    </row>
+    <row r="50" ht="33.6" spans="1:13">
       <c r="A50" s="26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H50" s="24">
         <v>45766</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K50" s="24">
         <v>45769</v>
       </c>
       <c r="L50" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M50" s="69"/>
-    </row>
-    <row r="51" customFormat="1" ht="33.6" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="M50" s="44"/>
+    </row>
+    <row r="51" ht="33.6" spans="1:13">
       <c r="A51" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F51" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G51" s="20" t="s">
-        <v>50</v>
+      <c r="G51" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="H51" s="24">
         <v>45766</v>
@@ -5939,8 +6248,8 @@
       <c r="I51" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J51" s="20" t="s">
-        <v>50</v>
+      <c r="J51" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="K51" s="24">
         <v>45769</v>
@@ -5948,64 +6257,64 @@
       <c r="L51" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="M51" s="69"/>
-    </row>
-    <row r="52" customFormat="1" ht="33.6" spans="1:13">
+      <c r="M51" s="44"/>
+    </row>
+    <row r="52" ht="33.6" spans="1:13">
       <c r="A52" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="F52" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="G52" s="65" t="s">
-        <v>50</v>
+        <v>175</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="H52" s="24">
         <v>45766</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J52" s="65" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="J52" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="K52" s="24">
         <v>45769</v>
       </c>
       <c r="L52" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M52" s="69"/>
-    </row>
-    <row r="53" customFormat="1" ht="33.6" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="M52" s="44"/>
+    </row>
+    <row r="53" ht="50.4" spans="1:13">
       <c r="A53" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G53" s="65" t="s">
-        <v>50</v>
+        <v>177</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="H53" s="24">
         <v>45766</v>
@@ -6013,8 +6322,8 @@
       <c r="I53" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J53" s="65" t="s">
-        <v>50</v>
+      <c r="J53" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="K53" s="24">
         <v>45769</v>
@@ -6022,167 +6331,169 @@
       <c r="L53" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="M53" s="69"/>
-    </row>
-    <row r="54" customFormat="1" ht="50.4" spans="1:13">
+      <c r="M53" s="44"/>
+    </row>
+    <row r="54" ht="33.6" spans="1:13">
       <c r="A54" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F54" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G54" s="65" t="s">
-        <v>50</v>
+      <c r="F54" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="H54" s="24">
         <v>45766</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J54" s="65" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="J54" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="K54" s="24">
         <v>45769</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M54" s="69"/>
-    </row>
-    <row r="55" customFormat="1" ht="33.6" spans="1:13">
+        <v>13</v>
+      </c>
+      <c r="M54" s="44"/>
+    </row>
+    <row r="55" ht="33.6" spans="1:13">
       <c r="A55" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F55" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="G55" s="65" t="s">
-        <v>50</v>
+      <c r="C55" s="40"/>
+      <c r="D55" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="H55" s="24">
         <v>45766</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J55" s="65" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="J55" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="K55" s="24">
         <v>45769</v>
       </c>
       <c r="L55" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M55" s="69"/>
-    </row>
-    <row r="56" customFormat="1" ht="33.6" spans="1:13">
-      <c r="A56" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M55" s="44"/>
+    </row>
+    <row r="56" ht="16.8" spans="1:14">
+      <c r="A56" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="71"/>
+    </row>
+    <row r="57" ht="316.5" customHeight="1" spans="1:13">
+      <c r="A57" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="F57" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G56" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="H56" s="24">
+      <c r="G57" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H57" s="34">
         <v>45766</v>
       </c>
-      <c r="I56" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J56" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="K56" s="24">
-        <v>45769</v>
-      </c>
-      <c r="L56" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M56" s="69"/>
-    </row>
-    <row r="57" customFormat="1" ht="16.8" spans="1:14">
-      <c r="A57" s="66" t="s">
+      <c r="I57" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K57" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L57" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M57" s="46"/>
+    </row>
+    <row r="58" ht="100.8" spans="1:13">
+      <c r="A58" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="66"/>
-      <c r="M57" s="66"/>
-      <c r="N57" s="70"/>
-    </row>
-    <row r="58" customFormat="1" ht="316.5" customHeight="1" spans="1:13">
-      <c r="A58" s="31" t="s">
+      <c r="B58" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="F58" s="35" t="s">
-        <v>190</v>
+      <c r="D58" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H58" s="36">
+        <v>48</v>
+      </c>
+      <c r="H58" s="24">
         <v>45766</v>
       </c>
       <c r="I58" s="20" t="s">
         <v>51</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K58" s="24">
         <v>45769</v>
@@ -6190,146 +6501,146 @@
       <c r="L58" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="M58" s="53"/>
-    </row>
-    <row r="59" customFormat="1" ht="100.8" spans="1:13">
-      <c r="A59" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="35" t="s">
+      <c r="M58" s="46"/>
+    </row>
+    <row r="59" ht="117.6" spans="1:13">
+      <c r="A59" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="F59" s="35" t="s">
-        <v>149</v>
+      <c r="D59" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>150</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H59" s="24">
         <v>45766</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K59" s="24">
         <v>45769</v>
       </c>
       <c r="L59" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M59" s="53"/>
-    </row>
-    <row r="60" customFormat="1" ht="117.6" spans="1:13">
-      <c r="A60" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M59" s="46"/>
+    </row>
+    <row r="60" ht="117.6" spans="1:13">
+      <c r="A60" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D60" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" s="35" t="s">
+      <c r="C60" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="F60" s="35" t="s">
-        <v>153</v>
+      <c r="D60" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H60" s="24">
         <v>45766</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K60" s="24">
         <v>45769</v>
       </c>
       <c r="L60" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M60" s="53"/>
-    </row>
-    <row r="61" customFormat="1" ht="117.6" spans="1:13">
-      <c r="A61" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B61" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="M60" s="46"/>
+    </row>
+    <row r="61" ht="117.6" spans="1:13">
+      <c r="A61" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>95</v>
+      <c r="C61" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H61" s="24">
         <v>45766</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J61" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K61" s="24">
         <v>45769</v>
       </c>
       <c r="L61" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M61" s="53"/>
-    </row>
-    <row r="62" customFormat="1" ht="117.6" spans="1:13">
-      <c r="A62" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M61" s="46"/>
+    </row>
+    <row r="62" ht="117.6" spans="1:13">
+      <c r="A62" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="B62" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>95</v>
+      <c r="D62" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H62" s="24">
         <v>45766</v>
@@ -6338,7 +6649,7 @@
         <v>51</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K62" s="24">
         <v>45769</v>
@@ -6346,85 +6657,46 @@
       <c r="L62" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="M62" s="53"/>
-    </row>
-    <row r="63" customFormat="1" ht="117.6" spans="1:13">
-      <c r="A63" s="31" t="s">
+      <c r="M62" s="46"/>
+    </row>
+    <row r="63" ht="117.6" spans="1:13">
+      <c r="A63" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="C63" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>163</v>
+      <c r="D63" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H63" s="24">
         <v>45766</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K63" s="24">
         <v>45769</v>
       </c>
       <c r="L63" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M63" s="53"/>
-    </row>
-    <row r="64" customFormat="1" ht="117.6" spans="1:13">
-      <c r="A64" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F64" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H64" s="24">
-        <v>45766</v>
-      </c>
-      <c r="I64" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J64" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K64" s="24">
-        <v>45769</v>
-      </c>
-      <c r="L64" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M64" s="53"/>
+        <v>13</v>
+      </c>
+      <c r="M63" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6434,7 +6706,7 @@
     <mergeCell ref="G40:I40"/>
     <mergeCell ref="J40:L40"/>
     <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A57:M57"/>
+    <mergeCell ref="A56:M56"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C41"/>
@@ -6444,7 +6716,7 @@
     <mergeCell ref="M39:M41"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G44:G56 G58:G64 J43:J56 J58:J64">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G44:G55 G57:G63 J43:J55 J57:J63">
       <formula1>"Passed,Untested,Failed,Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6462,7 +6734,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09259259259259" defaultRowHeight="14.4"/>
@@ -6484,7 +6756,7 @@
   <sheetData>
     <row r="1" ht="23.25" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -6496,7 +6768,7 @@
     </row>
     <row r="2" ht="22.8" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -6509,24 +6781,24 @@
     <row r="3" ht="18" spans="1:6">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5">
         <v>14</v>
@@ -6547,7 +6819,7 @@
     </row>
     <row r="5" ht="18" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9">
         <v>14</v>
@@ -6567,677 +6839,677 @@
       </c>
     </row>
     <row r="31" ht="17.4" spans="1:13">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="45" t="s">
+      <c r="E31" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="F31" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="G31" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="47" t="s">
+    </row>
+    <row r="32" ht="17.4" spans="1:13">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="12" t="s">
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" ht="17.4" spans="1:13">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="47" t="s">
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" ht="15.6" spans="1:13">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47" t="s">
+      <c r="H33" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" ht="15.6" spans="1:13">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45" t="s">
+      <c r="I33" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="K33" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="45" t="s">
-        <v>43</v>
-      </c>
       <c r="M33" s="12"/>
     </row>
     <row r="34" ht="15.6" spans="1:13">
-      <c r="A34" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
+      <c r="A34" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
     </row>
     <row r="35" ht="33.6" spans="1:13">
       <c r="A35" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H35" s="21">
         <v>45766</v>
       </c>
-      <c r="I35" s="40" t="s">
-        <v>207</v>
+      <c r="I35" s="45" t="s">
+        <v>203</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K35" s="24">
         <v>45769</v>
       </c>
-      <c r="L35" s="40" t="s">
-        <v>207</v>
+      <c r="L35" s="45" t="s">
+        <v>203</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="33.6" spans="1:13">
       <c r="A36" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C36" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="F36" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H36" s="24">
         <v>45766</v>
       </c>
-      <c r="I36" s="43" t="s">
-        <v>207</v>
+      <c r="I36" s="47" t="s">
+        <v>203</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K36" s="24">
         <v>45769</v>
       </c>
-      <c r="L36" s="43" t="s">
-        <v>207</v>
+      <c r="L36" s="47" t="s">
+        <v>203</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="33.6" spans="1:13">
       <c r="A37" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C37" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F37" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="G37" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H37" s="24">
         <v>45766</v>
       </c>
-      <c r="I37" s="43" t="s">
-        <v>51</v>
+      <c r="I37" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K37" s="24">
         <v>45769</v>
       </c>
-      <c r="L37" s="43" t="s">
-        <v>51</v>
+      <c r="L37" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="33.6" spans="1:13">
       <c r="A38" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C38" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="F38" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H38" s="24">
         <v>45766</v>
       </c>
-      <c r="I38" s="43" t="s">
-        <v>51</v>
+      <c r="I38" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K38" s="24">
         <v>45769</v>
       </c>
-      <c r="L38" s="43" t="s">
-        <v>51</v>
+      <c r="L38" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="33.6" spans="1:13">
       <c r="A39" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C39" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="F39" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H39" s="24">
         <v>45766</v>
       </c>
-      <c r="I39" s="43" t="s">
-        <v>207</v>
+      <c r="I39" s="47" t="s">
+        <v>203</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K39" s="24">
         <v>45769</v>
       </c>
-      <c r="L39" s="43" t="s">
-        <v>207</v>
+      <c r="L39" s="47" t="s">
+        <v>203</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="33.6" spans="1:13">
       <c r="A40" s="16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C40" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="G40" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H40" s="24">
         <v>45766</v>
       </c>
-      <c r="I40" s="43" t="s">
-        <v>51</v>
+      <c r="I40" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K40" s="24">
         <v>45769</v>
       </c>
-      <c r="L40" s="43" t="s">
-        <v>51</v>
+      <c r="L40" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="33.6" spans="1:13">
       <c r="A41" s="16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H41" s="24">
         <v>45766</v>
       </c>
-      <c r="I41" s="43" t="s">
-        <v>207</v>
+      <c r="I41" s="47" t="s">
+        <v>203</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K41" s="24">
         <v>45769</v>
       </c>
-      <c r="L41" s="43" t="s">
-        <v>207</v>
+      <c r="L41" s="47" t="s">
+        <v>203</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="33.6" spans="1:13">
       <c r="A42" s="16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H42" s="24">
         <v>45766</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K42" s="24">
         <v>45769</v>
       </c>
       <c r="L42" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" ht="16.8" spans="1:13">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="56"/>
+    </row>
+    <row r="44" ht="218.4" spans="1:13">
+      <c r="A44" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="34">
+        <v>45766</v>
+      </c>
+      <c r="I44" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L44" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="M44" s="46"/>
+    </row>
+    <row r="45" ht="100.8" spans="1:13">
+      <c r="A45" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="52"/>
-    </row>
-    <row r="44" ht="218.4" spans="1:13">
-      <c r="A44" s="31" t="s">
+      <c r="B45" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="36">
-        <v>45766</v>
-      </c>
-      <c r="I44" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K44" s="24">
-        <v>45769</v>
-      </c>
-      <c r="L44" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="M44" s="53"/>
-    </row>
-    <row r="45" ht="100.8" spans="1:13">
-      <c r="A45" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>149</v>
+      <c r="D45" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H45" s="24">
         <v>45766</v>
       </c>
-      <c r="I45" s="43" t="s">
-        <v>207</v>
+      <c r="I45" s="47" t="s">
+        <v>203</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K45" s="24">
         <v>45769</v>
       </c>
-      <c r="L45" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="M45" s="53"/>
+      <c r="L45" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="M45" s="46"/>
     </row>
     <row r="46" ht="134.4" spans="1:13">
-      <c r="A46" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>153</v>
+      <c r="A46" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>150</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H46" s="24">
         <v>45766</v>
       </c>
-      <c r="I46" s="43" t="s">
-        <v>51</v>
+      <c r="I46" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K46" s="24">
         <v>45769</v>
       </c>
-      <c r="L46" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="M46" s="53"/>
+      <c r="L46" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46" s="46"/>
     </row>
     <row r="47" ht="134.4" spans="1:13">
-      <c r="A47" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>95</v>
+      <c r="A47" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H47" s="24">
         <v>45766</v>
       </c>
-      <c r="I47" s="43" t="s">
-        <v>51</v>
+      <c r="I47" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K47" s="24">
         <v>45769</v>
       </c>
-      <c r="L47" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="M47" s="53"/>
+      <c r="L47" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="M47" s="46"/>
     </row>
     <row r="48" ht="134.4" spans="1:13">
-      <c r="A48" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>95</v>
+      <c r="A48" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H48" s="24">
         <v>45766</v>
       </c>
-      <c r="I48" s="43" t="s">
-        <v>207</v>
+      <c r="I48" s="47" t="s">
+        <v>203</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K48" s="24">
         <v>45769</v>
       </c>
-      <c r="L48" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="M48" s="53"/>
+      <c r="L48" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="M48" s="46"/>
     </row>
     <row r="49" ht="134.4" spans="1:13">
-      <c r="A49" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>163</v>
+      <c r="A49" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H49" s="24">
         <v>45766</v>
       </c>
-      <c r="I49" s="43" t="s">
-        <v>51</v>
+      <c r="I49" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K49" s="24">
         <v>45769</v>
       </c>
-      <c r="L49" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="M49" s="53"/>
+      <c r="L49" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7274,8 +7546,8 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7297,10 +7569,10 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -7309,7 +7581,7 @@
     </row>
     <row r="2" ht="23.25" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -7322,24 +7594,24 @@
     <row r="3" ht="18" spans="1:6">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5">
         <v>20</v>
@@ -7360,7 +7632,7 @@
     </row>
     <row r="5" ht="18" spans="1:6">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9">
         <v>20</v>
@@ -7380,25 +7652,25 @@
     </row>
     <row r="31" ht="16.8" spans="1:13">
       <c r="A31" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="G31" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -7406,7 +7678,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="16.8" spans="1:13">
@@ -7417,16 +7689,16 @@
       <c r="E32" s="11"/>
       <c r="F32" s="10"/>
       <c r="G32" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
-      <c r="M32" s="37"/>
+      <c r="M32" s="35"/>
     </row>
     <row r="33" ht="16.8" spans="1:13">
       <c r="A33" s="10"/>
@@ -7436,28 +7708,28 @@
       <c r="E33" s="11"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="J33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M33" s="37"/>
+      <c r="M33" s="35"/>
     </row>
     <row r="34" ht="16.8" spans="1:13">
       <c r="A34" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -7470,806 +7742,806 @@
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
-      <c r="M34" s="38"/>
+      <c r="M34" s="36"/>
     </row>
     <row r="35" ht="33.6" spans="1:13">
       <c r="A35" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H35" s="21">
         <v>45766</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K35" s="24">
         <v>45769</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" ht="33.6" spans="1:13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" ht="33.6" spans="1:13">
       <c r="A36" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H36" s="24">
         <v>45766</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K36" s="24">
         <v>45769</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M36" s="23"/>
     </row>
     <row r="37" ht="33.6" spans="1:13">
       <c r="A37" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C37" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="F37" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H37" s="24">
         <v>45766</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K37" s="24">
         <v>45769</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="33.6" spans="1:13">
       <c r="A38" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C38" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="F38" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H38" s="24">
         <v>45766</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K38" s="24">
         <v>45769</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="33.6" spans="1:13">
       <c r="A39" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C39" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="F39" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H39" s="24">
         <v>45766</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K39" s="24">
         <v>45769</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="33.6" spans="1:13">
       <c r="A40" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C40" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="F40" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H40" s="24">
         <v>45766</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K40" s="24">
         <v>45769</v>
       </c>
       <c r="L40" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="33.6" spans="1:13">
       <c r="A41" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H41" s="24">
         <v>45766</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K41" s="24">
         <v>45769</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="33.6" spans="1:13">
       <c r="A42" s="16" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C42" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>49</v>
-      </c>
       <c r="F42" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H42" s="24">
         <v>45766</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K42" s="24">
         <v>45769</v>
       </c>
       <c r="L42" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" ht="33.6" spans="1:13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" ht="33.6" spans="1:13">
       <c r="A43" s="16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H43" s="24">
         <v>45766</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K43" s="24">
         <v>45769</v>
       </c>
       <c r="L43" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M43" s="23"/>
     </row>
-    <row r="44" customFormat="1" ht="33.6" spans="1:13">
+    <row r="44" ht="33.6" spans="1:13">
       <c r="A44" s="16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>118</v>
+        <v>248</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H44" s="24">
         <v>45766</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K44" s="24">
         <v>45769</v>
       </c>
       <c r="L44" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M44" s="23"/>
     </row>
-    <row r="45" customFormat="1" ht="50.4" spans="1:13">
+    <row r="45" ht="50.4" spans="1:13">
       <c r="A45" s="16" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>118</v>
+        <v>250</v>
+      </c>
+      <c r="C45" s="40"/>
+      <c r="D45" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H45" s="24">
         <v>45766</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K45" s="24">
         <v>45769</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M45" s="23"/>
     </row>
-    <row r="46" customFormat="1" ht="33.6" spans="1:13">
+    <row r="46" ht="33.6" spans="1:13">
       <c r="A46" s="16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>184</v>
+        <v>179</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>180</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H46" s="24">
         <v>45766</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K46" s="24">
         <v>45769</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M46" s="23"/>
     </row>
-    <row r="47" customFormat="1" ht="33.6" spans="1:13">
+    <row r="47" ht="33.6" spans="1:13">
       <c r="A47" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>118</v>
+        <v>182</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H47" s="24">
         <v>45766</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K47" s="24">
         <v>45769</v>
       </c>
       <c r="L47" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M47" s="23"/>
     </row>
     <row r="48" ht="16.8" spans="1:13">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="37"/>
+    </row>
+    <row r="49" ht="259" customHeight="1" spans="1:13">
+      <c r="A49" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="34">
+        <v>45766</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K49" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L49" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="M49" s="38"/>
+    </row>
+    <row r="50" ht="100.8" spans="1:13">
+      <c r="A50" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="39"/>
-    </row>
-    <row r="49" ht="259" customHeight="1" spans="1:13">
-      <c r="A49" s="31" t="s">
+      <c r="B50" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="B49" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H49" s="36">
-        <v>45766</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K49" s="24">
-        <v>45769</v>
-      </c>
-      <c r="L49" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="M49" s="41"/>
-    </row>
-    <row r="50" ht="100.8" spans="1:13">
-      <c r="A50" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>149</v>
+      <c r="D50" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H50" s="24">
         <v>45766</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K50" s="42">
-        <v>45769</v>
-      </c>
-      <c r="L50" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="M50" s="41"/>
+        <v>48</v>
+      </c>
+      <c r="K50" s="39">
+        <v>45769</v>
+      </c>
+      <c r="L50" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="M50" s="38"/>
     </row>
     <row r="51" ht="134.4" spans="1:13">
-      <c r="A51" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>153</v>
+      <c r="A51" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>150</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H51" s="24">
         <v>45766</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K51" s="42">
-        <v>45769</v>
-      </c>
-      <c r="L51" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="M51" s="41"/>
+        <v>48</v>
+      </c>
+      <c r="K51" s="39">
+        <v>45769</v>
+      </c>
+      <c r="L51" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="M51" s="38"/>
     </row>
     <row r="52" ht="117.6" spans="1:13">
-      <c r="A52" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>95</v>
+      <c r="A52" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H52" s="24">
         <v>45766</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K52" s="42">
-        <v>45769</v>
-      </c>
-      <c r="L52" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="M52" s="41"/>
+        <v>48</v>
+      </c>
+      <c r="K52" s="39">
+        <v>45769</v>
+      </c>
+      <c r="L52" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="M52" s="38"/>
     </row>
     <row r="53" ht="117.6" spans="1:13">
-      <c r="A53" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="35" t="s">
-        <v>95</v>
+      <c r="A53" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H53" s="24">
         <v>45766</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K53" s="42">
-        <v>45769</v>
-      </c>
-      <c r="L53" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="M53" s="41"/>
+        <v>48</v>
+      </c>
+      <c r="K53" s="39">
+        <v>45769</v>
+      </c>
+      <c r="L53" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="M53" s="38"/>
     </row>
     <row r="54" ht="117.6" spans="1:13">
-      <c r="A54" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F54" s="35" t="s">
-        <v>163</v>
+      <c r="A54" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H54" s="24">
         <v>45766</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K54" s="42">
-        <v>45769</v>
-      </c>
-      <c r="L54" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="M54" s="41"/>
+        <v>48</v>
+      </c>
+      <c r="K54" s="39">
+        <v>45769</v>
+      </c>
+      <c r="L54" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="M54" s="38"/>
     </row>
     <row r="55" ht="134.4" spans="1:13">
-      <c r="A55" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>163</v>
+      <c r="A55" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H55" s="24">
         <v>45766</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K55" s="42">
-        <v>45769</v>
-      </c>
-      <c r="L55" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="M55" s="44"/>
+        <v>48</v>
+      </c>
+      <c r="K55" s="39">
+        <v>45769</v>
+      </c>
+      <c r="L55" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="M55" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8297,4 +8569,1598 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.8148148148148" customWidth="1"/>
+    <col min="2" max="2" width="25.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="37.0925925925926" customWidth="1"/>
+    <col min="4" max="4" width="43.1759259259259" customWidth="1"/>
+    <col min="5" max="5" width="38.4537037037037" customWidth="1"/>
+    <col min="6" max="6" width="51.9074074074074" customWidth="1"/>
+    <col min="7" max="7" width="14.5462962962963" customWidth="1"/>
+    <col min="8" max="8" width="19.3611111111111" customWidth="1"/>
+    <col min="9" max="9" width="20.4537037037037" customWidth="1"/>
+    <col min="10" max="10" width="14.5462962962963" customWidth="1"/>
+    <col min="11" max="11" width="19.3611111111111" customWidth="1"/>
+    <col min="12" max="12" width="20.4537037037037" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" ht="23.25" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" ht="18" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="18" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <f>B4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" spans="1:13">
+      <c r="A31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" ht="16.8" spans="1:13">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="35"/>
+    </row>
+    <row r="33" ht="16.8" spans="1:13">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="35"/>
+    </row>
+    <row r="34" ht="16.8" spans="1:13">
+      <c r="A34" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="36"/>
+    </row>
+    <row r="35" ht="33.6" spans="1:13">
+      <c r="A35" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="21">
+        <v>45766</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" ht="33.6" spans="1:13">
+      <c r="A36" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="M36" s="23"/>
+    </row>
+    <row r="37" ht="33.6" spans="1:13">
+      <c r="A37" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" ht="33.6" spans="1:13">
+      <c r="A38" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" ht="33.6" spans="1:13">
+      <c r="A39" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" ht="33.6" spans="1:13">
+      <c r="A40" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M40" s="23"/>
+    </row>
+    <row r="41" ht="33.6" spans="1:13">
+      <c r="A41" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="44"/>
+    </row>
+    <row r="42" ht="50.4" spans="1:13">
+      <c r="A42" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J42" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="M42" s="44"/>
+    </row>
+    <row r="43" ht="33.6" spans="1:13">
+      <c r="A43" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" s="44"/>
+    </row>
+    <row r="44" ht="33.6" spans="1:13">
+      <c r="A44" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M44" s="44"/>
+    </row>
+    <row r="45" ht="16.8" spans="1:13">
+      <c r="A45" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="37"/>
+    </row>
+    <row r="46" ht="259" customHeight="1" spans="1:13">
+      <c r="A46" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="34">
+        <v>45766</v>
+      </c>
+      <c r="I46" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L46" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="M46" s="38"/>
+    </row>
+    <row r="47" ht="100.8" spans="1:13">
+      <c r="A47" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K47" s="39">
+        <v>45769</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="M47" s="38"/>
+    </row>
+    <row r="48" ht="117.6" spans="1:13">
+      <c r="A48" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K48" s="39">
+        <v>45769</v>
+      </c>
+      <c r="L48" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" s="38"/>
+    </row>
+    <row r="49" ht="117.6" spans="1:13">
+      <c r="A49" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K49" s="39">
+        <v>45769</v>
+      </c>
+      <c r="L49" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" s="38"/>
+    </row>
+    <row r="50" ht="117.6" spans="1:13">
+      <c r="A50" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" s="39">
+        <v>45769</v>
+      </c>
+      <c r="L50" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M50" s="38"/>
+    </row>
+    <row r="51" ht="151.2" spans="1:13">
+      <c r="A51" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I51" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K51" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L51" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="M51" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="M31:M33"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G35:G44 G46:G51 J35:J44 J46:J51">
+      <formula1>"Passed,Untested,Failed,Blocked"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.8148148148148" customWidth="1"/>
+    <col min="2" max="2" width="25.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="37.0925925925926" customWidth="1"/>
+    <col min="4" max="4" width="43.1759259259259" customWidth="1"/>
+    <col min="5" max="5" width="38.4537037037037" customWidth="1"/>
+    <col min="6" max="6" width="51.9074074074074" customWidth="1"/>
+    <col min="7" max="7" width="14.5462962962963" customWidth="1"/>
+    <col min="8" max="8" width="19.3611111111111" customWidth="1"/>
+    <col min="9" max="9" width="20.4537037037037" customWidth="1"/>
+    <col min="10" max="10" width="14.5462962962963" customWidth="1"/>
+    <col min="11" max="11" width="19.3611111111111" customWidth="1"/>
+    <col min="12" max="12" width="20.4537037037037" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" ht="23.25" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" ht="18" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="18" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <f>B4</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" spans="1:13">
+      <c r="A31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" ht="16.8" spans="1:13">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="35"/>
+    </row>
+    <row r="33" ht="16.8" spans="1:13">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="35"/>
+    </row>
+    <row r="34" ht="16.8" spans="1:13">
+      <c r="A34" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="36"/>
+    </row>
+    <row r="35" ht="33.6" spans="1:13">
+      <c r="A35" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="21">
+        <v>45766</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" ht="33.6" spans="1:13">
+      <c r="A36" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="M36" s="23"/>
+    </row>
+    <row r="37" ht="33.6" spans="1:13">
+      <c r="A37" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" ht="33.6" spans="1:13">
+      <c r="A38" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" ht="33.6" spans="1:13">
+      <c r="A39" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" ht="33.6" spans="1:13">
+      <c r="A40" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" ht="33.6" spans="1:13">
+      <c r="A41" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="23"/>
+    </row>
+    <row r="42" ht="16.8" spans="1:13">
+      <c r="A42" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="37"/>
+    </row>
+    <row r="43" ht="259" customHeight="1" spans="1:13">
+      <c r="A43" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="34">
+        <v>45766</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="24">
+        <v>45769</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="M43" s="38"/>
+    </row>
+    <row r="44" ht="117.6" spans="1:13">
+      <c r="A44" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" s="39">
+        <v>45769</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="M44" s="38"/>
+    </row>
+    <row r="45" ht="134.4" spans="1:13">
+      <c r="A45" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K45" s="39">
+        <v>45769</v>
+      </c>
+      <c r="L45" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" s="38"/>
+    </row>
+    <row r="46" ht="117.6" spans="1:13">
+      <c r="A46" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46" s="39">
+        <v>45769</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46" s="38"/>
+    </row>
+    <row r="47" ht="117.6" spans="1:13">
+      <c r="A47" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="24">
+        <v>45766</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K47" s="39">
+        <v>45769</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M47" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="M31:M33"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G35:G41 G43:G47 J35:J41 J43:J47">
+      <formula1>"Passed,Untested,Failed,Blocked"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>